--- a/淘宝/关键词搜索价格最低的商品信息/config/查询记录.xlsx
+++ b/淘宝/关键词搜索价格最低的商品信息/config/查询记录.xlsx
@@ -16,210 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="891">
   <si>
     <t>牌名</t>
-  </si>
-  <si>
-    <t>万智牌复耀黎兹</t>
-  </si>
-  <si>
-    <t>万智牌心灵葬礼</t>
-  </si>
-  <si>
-    <t>万智牌虎影百合子</t>
-  </si>
-  <si>
-    <t>万智牌最高裁决</t>
-  </si>
-  <si>
-    <t>万智牌等时权杖</t>
-  </si>
-  <si>
-    <t>万智牌穿髓金针</t>
-  </si>
-  <si>
-    <t>万智牌驯良之剑</t>
-  </si>
-  <si>
-    <t>万智牌着魔时空通道</t>
-  </si>
-  <si>
-    <t>万智牌虚空圣杯</t>
-  </si>
-  <si>
-    <t>万智牌联盟遗宝</t>
-  </si>
-  <si>
-    <t>万智牌熔天顶瓦拉库</t>
-  </si>
-  <si>
-    <t>万智牌山贼王大厅</t>
-  </si>
-  <si>
-    <t>万智牌维苏瓦</t>
-  </si>
-  <si>
-    <t>万智牌裂片妖母巢</t>
-  </si>
-  <si>
-    <t>万智牌阿达卡荒野</t>
-  </si>
-  <si>
-    <t>万智牌塑境秘潭</t>
-  </si>
-  <si>
-    <t>万智牌繁盛步道</t>
-  </si>
-  <si>
-    <t>万智牌神秘干扰</t>
-  </si>
-  <si>
-    <t>万智牌碎骨巨人</t>
-  </si>
-  <si>
-    <t>万智牌暴食巨魔侯</t>
-  </si>
-  <si>
-    <t>万智牌凡翠丝石像鬼</t>
-  </si>
-  <si>
-    <t>万智牌皇族双子</t>
-  </si>
-  <si>
-    <t>万智牌窃冠瓯柯</t>
-  </si>
-  <si>
-    <t>万智牌寻水兽</t>
-  </si>
-  <si>
-    <t>万智牌很久以前</t>
-  </si>
-  <si>
-    <t>万智牌劫富侠客</t>
-  </si>
-  <si>
-    <t>万智牌巨石圆阵</t>
-  </si>
-  <si>
-    <t>万智牌神奇小径</t>
-  </si>
-  <si>
-    <t>万智牌恶戏之王兰卡</t>
-  </si>
-  <si>
-    <t>万智牌忠诚焰圈</t>
-  </si>
-  <si>
-    <t>万智牌创新烈焰</t>
-  </si>
-  <si>
-    <t>万智牌幻境保卫者</t>
-  </si>
-  <si>
-    <t>万智牌狂徒嬉戏</t>
-  </si>
-  <si>
-    <t>万智牌石卷巨蛇</t>
-  </si>
-  <si>
-    <t>万智牌雅登瓦堡</t>
-  </si>
-  <si>
-    <t>万智牌盖伦碧堡</t>
-  </si>
-  <si>
-    <t>万智牌洛司温堡</t>
-  </si>
-  <si>
-    <t>万智牌凡翠丝堡</t>
-  </si>
-  <si>
-    <t>万智牌热恋野兽</t>
-  </si>
-  <si>
-    <t>万智牌巫视望远镜</t>
-  </si>
-  <si>
-    <t>万智牌全宅起舞</t>
-  </si>
-  <si>
-    <t>万智牌恶狼</t>
-  </si>
-  <si>
-    <t>万智牌末日前兆</t>
-  </si>
-  <si>
-    <t>万智牌夺魂骑兵</t>
-  </si>
-  <si>
-    <t>万智牌厚颜借物灵</t>
-  </si>
-  <si>
-    <t>万智牌烧燃地脉</t>
-  </si>
-  <si>
-    <t>万智牌觉醒炼狱茜卓</t>
-  </si>
-  <si>
-    <t>万智牌虚空地脉</t>
-  </si>
-  <si>
-    <t>万智牌舞空沐燕灵</t>
-  </si>
-  <si>
-    <t>万智牌骄傲血领索霖</t>
-  </si>
-  <si>
-    <t>万智牌狂搅核欧那斯</t>
-  </si>
-  <si>
-    <t>万智牌莲花田野</t>
-  </si>
-  <si>
-    <t>万智牌荆棘骁骑</t>
-  </si>
-  <si>
-    <t>万智牌圣洁地脉</t>
-  </si>
-  <si>
-    <t>万智牌火焰侍僧茜卓</t>
-  </si>
-  <si>
-    <t>万智牌神弓游侠薇薇安</t>
-  </si>
-  <si>
-    <t>万智牌秽灵雅若克</t>
-  </si>
-  <si>
-    <t>万智牌狮群之力阿耶尼</t>
-  </si>
-  <si>
-    <t>万智牌黑檀军团骑士</t>
-  </si>
-  <si>
-    <t>万智牌幕宾柯希斯</t>
-  </si>
-  <si>
-    <t>万智牌烈风骁骑</t>
-  </si>
-  <si>
-    <t>万智牌暮夜骁骑</t>
-  </si>
-  <si>
-    <t>万智牌垦殖妖精</t>
-  </si>
-  <si>
-    <t>万智牌烈焰横扫</t>
-  </si>
-  <si>
-    <t>万智牌变幻犄角龙</t>
-  </si>
-  <si>
-    <t>万智牌夜群袭狼</t>
-  </si>
-  <si>
-    <t>万智牌挖坟人囚笼</t>
   </si>
   <si>
     <t>万智牌神秘熔炉</t>
@@ -2898,9 +2697,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -2927,14 +2726,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2944,6 +2735,91 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2965,7 +2841,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2973,22 +2849,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3002,70 +2863,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3080,7 +2879,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3098,25 +2927,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3134,13 +2957,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3158,25 +3005,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3188,79 +3047,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3283,17 +3082,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3309,6 +3097,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3320,6 +3128,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3347,40 +3170,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3389,133 +3188,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3876,10 +3675,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2356"/>
+  <dimension ref="A1:A2289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7346,342 +7145,342 @@
     </row>
     <row r="692" spans="1:1">
       <c r="A692" t="s">
-        <v>691</v>
+        <v>666</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759" t="s">
-        <v>733</v>
+        <v>757</v>
       </c>
     </row>
     <row r="760" spans="1:1">
@@ -8350,339 +8149,205 @@
       </c>
     </row>
     <row r="893" spans="1:1">
-      <c r="A893" t="s">
-        <v>891</v>
-      </c>
+      <c r="A893" s="2"/>
     </row>
     <row r="894" spans="1:1">
-      <c r="A894" t="s">
-        <v>892</v>
-      </c>
+      <c r="A894" s="2"/>
     </row>
     <row r="895" spans="1:1">
-      <c r="A895" t="s">
-        <v>893</v>
-      </c>
+      <c r="A895" s="2"/>
     </row>
     <row r="896" spans="1:1">
-      <c r="A896" t="s">
-        <v>894</v>
-      </c>
+      <c r="A896" s="2"/>
     </row>
     <row r="897" spans="1:1">
-      <c r="A897" t="s">
-        <v>895</v>
-      </c>
+      <c r="A897" s="2"/>
     </row>
     <row r="898" spans="1:1">
-      <c r="A898" t="s">
-        <v>896</v>
-      </c>
+      <c r="A898" s="2"/>
     </row>
     <row r="899" spans="1:1">
-      <c r="A899" t="s">
-        <v>897</v>
-      </c>
+      <c r="A899" s="2"/>
     </row>
     <row r="900" spans="1:1">
-      <c r="A900" t="s">
-        <v>898</v>
-      </c>
+      <c r="A900" s="2"/>
     </row>
     <row r="901" spans="1:1">
-      <c r="A901" t="s">
-        <v>899</v>
-      </c>
+      <c r="A901" s="2"/>
     </row>
     <row r="902" spans="1:1">
-      <c r="A902" t="s">
-        <v>900</v>
-      </c>
+      <c r="A902" s="2"/>
     </row>
     <row r="903" spans="1:1">
-      <c r="A903" t="s">
-        <v>901</v>
-      </c>
+      <c r="A903" s="2"/>
     </row>
     <row r="904" spans="1:1">
-      <c r="A904" t="s">
-        <v>902</v>
-      </c>
+      <c r="A904" s="2"/>
     </row>
     <row r="905" spans="1:1">
-      <c r="A905" t="s">
-        <v>903</v>
-      </c>
+      <c r="A905" s="2"/>
     </row>
     <row r="906" spans="1:1">
-      <c r="A906" t="s">
-        <v>904</v>
-      </c>
+      <c r="A906" s="2"/>
     </row>
     <row r="907" spans="1:1">
-      <c r="A907" t="s">
-        <v>905</v>
-      </c>
+      <c r="A907" s="2"/>
     </row>
     <row r="908" spans="1:1">
-      <c r="A908" t="s">
-        <v>906</v>
-      </c>
+      <c r="A908" s="2"/>
     </row>
     <row r="909" spans="1:1">
-      <c r="A909" t="s">
-        <v>907</v>
-      </c>
+      <c r="A909" s="2"/>
     </row>
     <row r="910" spans="1:1">
-      <c r="A910" t="s">
-        <v>908</v>
-      </c>
+      <c r="A910" s="2"/>
     </row>
     <row r="911" spans="1:1">
-      <c r="A911" t="s">
-        <v>909</v>
-      </c>
+      <c r="A911" s="2"/>
     </row>
     <row r="912" spans="1:1">
-      <c r="A912" t="s">
-        <v>910</v>
-      </c>
+      <c r="A912" s="2"/>
     </row>
     <row r="913" spans="1:1">
-      <c r="A913" t="s">
-        <v>911</v>
-      </c>
+      <c r="A913" s="2"/>
     </row>
     <row r="914" spans="1:1">
-      <c r="A914" t="s">
-        <v>912</v>
-      </c>
+      <c r="A914" s="2"/>
     </row>
     <row r="915" spans="1:1">
-      <c r="A915" t="s">
-        <v>913</v>
-      </c>
+      <c r="A915" s="2"/>
     </row>
     <row r="916" spans="1:1">
-      <c r="A916" t="s">
-        <v>914</v>
-      </c>
+      <c r="A916" s="2"/>
     </row>
     <row r="917" spans="1:1">
-      <c r="A917" t="s">
-        <v>915</v>
-      </c>
+      <c r="A917" s="2"/>
     </row>
     <row r="918" spans="1:1">
-      <c r="A918" t="s">
-        <v>916</v>
-      </c>
+      <c r="A918" s="2"/>
     </row>
     <row r="919" spans="1:1">
-      <c r="A919" t="s">
-        <v>917</v>
-      </c>
+      <c r="A919" s="2"/>
     </row>
     <row r="920" spans="1:1">
-      <c r="A920" t="s">
-        <v>918</v>
-      </c>
+      <c r="A920" s="2"/>
     </row>
     <row r="921" spans="1:1">
-      <c r="A921" t="s">
-        <v>919</v>
-      </c>
+      <c r="A921" s="2"/>
     </row>
     <row r="922" spans="1:1">
-      <c r="A922" t="s">
-        <v>920</v>
-      </c>
+      <c r="A922" s="2"/>
     </row>
     <row r="923" spans="1:1">
-      <c r="A923" t="s">
-        <v>921</v>
-      </c>
+      <c r="A923" s="2"/>
     </row>
     <row r="924" spans="1:1">
-      <c r="A924" t="s">
-        <v>922</v>
-      </c>
+      <c r="A924" s="2"/>
     </row>
     <row r="925" spans="1:1">
-      <c r="A925" t="s">
-        <v>923</v>
-      </c>
+      <c r="A925" s="2"/>
     </row>
     <row r="926" spans="1:1">
-      <c r="A926" t="s">
-        <v>924</v>
-      </c>
+      <c r="A926" s="2"/>
     </row>
     <row r="927" spans="1:1">
-      <c r="A927" t="s">
-        <v>925</v>
-      </c>
+      <c r="A927" s="2"/>
     </row>
     <row r="928" spans="1:1">
-      <c r="A928" t="s">
-        <v>926</v>
-      </c>
+      <c r="A928" s="2"/>
     </row>
     <row r="929" spans="1:1">
-      <c r="A929" t="s">
-        <v>927</v>
-      </c>
+      <c r="A929" s="2"/>
     </row>
     <row r="930" spans="1:1">
-      <c r="A930" t="s">
-        <v>928</v>
-      </c>
+      <c r="A930" s="2"/>
     </row>
     <row r="931" spans="1:1">
-      <c r="A931" t="s">
-        <v>929</v>
-      </c>
+      <c r="A931" s="2"/>
     </row>
     <row r="932" spans="1:1">
-      <c r="A932" t="s">
-        <v>930</v>
-      </c>
+      <c r="A932" s="2"/>
     </row>
     <row r="933" spans="1:1">
-      <c r="A933" t="s">
-        <v>931</v>
-      </c>
+      <c r="A933" s="2"/>
     </row>
     <row r="934" spans="1:1">
-      <c r="A934" t="s">
-        <v>932</v>
-      </c>
+      <c r="A934" s="2"/>
     </row>
     <row r="935" spans="1:1">
-      <c r="A935" t="s">
-        <v>933</v>
-      </c>
+      <c r="A935" s="2"/>
     </row>
     <row r="936" spans="1:1">
-      <c r="A936" t="s">
-        <v>934</v>
-      </c>
+      <c r="A936" s="2"/>
     </row>
     <row r="937" spans="1:1">
-      <c r="A937" t="s">
-        <v>935</v>
-      </c>
+      <c r="A937" s="2"/>
     </row>
     <row r="938" spans="1:1">
-      <c r="A938" t="s">
-        <v>936</v>
-      </c>
+      <c r="A938" s="2"/>
     </row>
     <row r="939" spans="1:1">
-      <c r="A939" t="s">
-        <v>937</v>
-      </c>
+      <c r="A939" s="2"/>
     </row>
     <row r="940" spans="1:1">
-      <c r="A940" t="s">
-        <v>938</v>
-      </c>
+      <c r="A940" s="2"/>
     </row>
     <row r="941" spans="1:1">
-      <c r="A941" t="s">
-        <v>939</v>
-      </c>
+      <c r="A941" s="2"/>
     </row>
     <row r="942" spans="1:1">
-      <c r="A942" t="s">
-        <v>940</v>
-      </c>
+      <c r="A942" s="2"/>
     </row>
     <row r="943" spans="1:1">
-      <c r="A943" t="s">
-        <v>941</v>
-      </c>
+      <c r="A943" s="2"/>
     </row>
     <row r="944" spans="1:1">
-      <c r="A944" t="s">
-        <v>942</v>
-      </c>
+      <c r="A944" s="2"/>
     </row>
     <row r="945" spans="1:1">
-      <c r="A945" t="s">
-        <v>943</v>
-      </c>
+      <c r="A945" s="2"/>
     </row>
     <row r="946" spans="1:1">
-      <c r="A946" t="s">
-        <v>944</v>
-      </c>
+      <c r="A946" s="2"/>
     </row>
     <row r="947" spans="1:1">
-      <c r="A947" t="s">
-        <v>945</v>
-      </c>
+      <c r="A947" s="2"/>
     </row>
     <row r="948" spans="1:1">
-      <c r="A948" t="s">
-        <v>946</v>
-      </c>
+      <c r="A948" s="2"/>
     </row>
     <row r="949" spans="1:1">
-      <c r="A949" t="s">
-        <v>947</v>
-      </c>
+      <c r="A949" s="2"/>
     </row>
     <row r="950" spans="1:1">
-      <c r="A950" t="s">
-        <v>948</v>
-      </c>
+      <c r="A950" s="2"/>
     </row>
     <row r="951" spans="1:1">
-      <c r="A951" t="s">
-        <v>949</v>
-      </c>
+      <c r="A951" s="2"/>
     </row>
     <row r="952" spans="1:1">
-      <c r="A952" t="s">
-        <v>950</v>
-      </c>
+      <c r="A952" s="2"/>
     </row>
     <row r="953" spans="1:1">
-      <c r="A953" t="s">
-        <v>951</v>
-      </c>
+      <c r="A953" s="2"/>
     </row>
     <row r="954" spans="1:1">
-      <c r="A954" t="s">
-        <v>952</v>
-      </c>
+      <c r="A954" s="2"/>
     </row>
     <row r="955" spans="1:1">
-      <c r="A955" t="s">
-        <v>953</v>
-      </c>
+      <c r="A955" s="2"/>
     </row>
     <row r="956" spans="1:1">
-      <c r="A956" t="s">
-        <v>954</v>
-      </c>
+      <c r="A956" s="2"/>
     </row>
     <row r="957" spans="1:1">
-      <c r="A957" t="s">
-        <v>955</v>
-      </c>
+      <c r="A957" s="2"/>
     </row>
     <row r="958" spans="1:1">
-      <c r="A958" t="s">
-        <v>956</v>
-      </c>
+      <c r="A958" s="2"/>
     </row>
     <row r="959" spans="1:1">
-      <c r="A959" t="s">
-        <v>957</v>
-      </c>
+      <c r="A959" s="2"/>
     </row>
     <row r="960" spans="1:1">
       <c r="A960" s="2"/>
@@ -8925,7 +8590,7 @@
       <c r="A1039" s="2"/>
     </row>
     <row r="1040" spans="1:1">
-      <c r="A1040" s="2"/>
+      <c r="A1040" s="3"/>
     </row>
     <row r="1041" spans="1:1">
       <c r="A1041" s="2"/>
@@ -9000,7 +8665,7 @@
       <c r="A1064" s="2"/>
     </row>
     <row r="1065" spans="1:1">
-      <c r="A1065" s="2"/>
+      <c r="A1065" s="3"/>
     </row>
     <row r="1066" spans="1:1">
       <c r="A1066" s="2"/>
@@ -9015,7 +8680,7 @@
       <c r="A1069" s="2"/>
     </row>
     <row r="1070" spans="1:1">
-      <c r="A1070" s="2"/>
+      <c r="A1070" s="3"/>
     </row>
     <row r="1071" spans="1:1">
       <c r="A1071" s="2"/>
@@ -9042,16 +8707,16 @@
       <c r="A1078" s="2"/>
     </row>
     <row r="1079" spans="1:1">
-      <c r="A1079" s="2"/>
+      <c r="A1079" s="3"/>
     </row>
     <row r="1080" spans="1:1">
       <c r="A1080" s="2"/>
     </row>
     <row r="1081" spans="1:1">
-      <c r="A1081" s="2"/>
+      <c r="A1081" s="3"/>
     </row>
     <row r="1082" spans="1:1">
-      <c r="A1082" s="2"/>
+      <c r="A1082" s="3"/>
     </row>
     <row r="1083" spans="1:1">
       <c r="A1083" s="2"/>
@@ -9126,7 +8791,7 @@
       <c r="A1106" s="2"/>
     </row>
     <row r="1107" spans="1:1">
-      <c r="A1107" s="3"/>
+      <c r="A1107" s="2"/>
     </row>
     <row r="1108" spans="1:1">
       <c r="A1108" s="2"/>
@@ -9201,7 +8866,7 @@
       <c r="A1131" s="2"/>
     </row>
     <row r="1132" spans="1:1">
-      <c r="A1132" s="3"/>
+      <c r="A1132" s="2"/>
     </row>
     <row r="1133" spans="1:1">
       <c r="A1133" s="2"/>
@@ -9216,7 +8881,7 @@
       <c r="A1136" s="2"/>
     </row>
     <row r="1137" spans="1:1">
-      <c r="A1137" s="3"/>
+      <c r="A1137" s="2"/>
     </row>
     <row r="1138" spans="1:1">
       <c r="A1138" s="2"/>
@@ -9243,16 +8908,16 @@
       <c r="A1145" s="2"/>
     </row>
     <row r="1146" spans="1:1">
-      <c r="A1146" s="3"/>
+      <c r="A1146" s="2"/>
     </row>
     <row r="1147" spans="1:1">
       <c r="A1147" s="2"/>
     </row>
     <row r="1148" spans="1:1">
-      <c r="A1148" s="3"/>
+      <c r="A1148" s="2"/>
     </row>
     <row r="1149" spans="1:1">
-      <c r="A1149" s="3"/>
+      <c r="A1149" s="2"/>
     </row>
     <row r="1150" spans="1:1">
       <c r="A1150" s="2"/>
@@ -9630,7 +9295,7 @@
       <c r="A1274" s="2"/>
     </row>
     <row r="1275" spans="1:1">
-      <c r="A1275" s="2"/>
+      <c r="A1275" s="3"/>
     </row>
     <row r="1276" spans="1:1">
       <c r="A1276" s="2"/>
@@ -9810,7 +9475,7 @@
       <c r="A1334" s="2"/>
     </row>
     <row r="1335" spans="1:1">
-      <c r="A1335" s="2"/>
+      <c r="A1335" s="3"/>
     </row>
     <row r="1336" spans="1:1">
       <c r="A1336" s="2"/>
@@ -9831,7 +9496,7 @@
       <c r="A1341" s="2"/>
     </row>
     <row r="1342" spans="1:1">
-      <c r="A1342" s="3"/>
+      <c r="A1342" s="2"/>
     </row>
     <row r="1343" spans="1:1">
       <c r="A1343" s="2"/>
@@ -9858,7 +9523,7 @@
       <c r="A1350" s="2"/>
     </row>
     <row r="1351" spans="1:1">
-      <c r="A1351" s="2"/>
+      <c r="A1351" s="3"/>
     </row>
     <row r="1352" spans="1:1">
       <c r="A1352" s="2"/>
@@ -9885,7 +9550,7 @@
       <c r="A1359" s="2"/>
     </row>
     <row r="1360" spans="1:1">
-      <c r="A1360" s="2"/>
+      <c r="A1360" s="3"/>
     </row>
     <row r="1361" spans="1:1">
       <c r="A1361" s="2"/>
@@ -9894,7 +9559,7 @@
       <c r="A1362" s="2"/>
     </row>
     <row r="1363" spans="1:1">
-      <c r="A1363" s="2"/>
+      <c r="A1363" s="3"/>
     </row>
     <row r="1364" spans="1:1">
       <c r="A1364" s="2"/>
@@ -10011,7 +9676,7 @@
       <c r="A1401" s="2"/>
     </row>
     <row r="1402" spans="1:1">
-      <c r="A1402" s="3"/>
+      <c r="A1402" s="2"/>
     </row>
     <row r="1403" spans="1:1">
       <c r="A1403" s="2"/>
@@ -10059,7 +9724,7 @@
       <c r="A1417" s="2"/>
     </row>
     <row r="1418" spans="1:1">
-      <c r="A1418" s="3"/>
+      <c r="A1418" s="2"/>
     </row>
     <row r="1419" spans="1:1">
       <c r="A1419" s="2"/>
@@ -10086,7 +9751,7 @@
       <c r="A1426" s="2"/>
     </row>
     <row r="1427" spans="1:1">
-      <c r="A1427" s="3"/>
+      <c r="A1427" s="2"/>
     </row>
     <row r="1428" spans="1:1">
       <c r="A1428" s="2"/>
@@ -10095,7 +9760,7 @@
       <c r="A1429" s="2"/>
     </row>
     <row r="1430" spans="1:1">
-      <c r="A1430" s="3"/>
+      <c r="A1430" s="2"/>
     </row>
     <row r="1431" spans="1:1">
       <c r="A1431" s="2"/>
@@ -10485,7 +10150,7 @@
       <c r="A1559" s="2"/>
     </row>
     <row r="1560" spans="1:1">
-      <c r="A1560" s="2"/>
+      <c r="A1560" s="3"/>
     </row>
     <row r="1561" spans="1:1">
       <c r="A1561" s="2"/>
@@ -10500,7 +10165,7 @@
       <c r="A1564" s="2"/>
     </row>
     <row r="1565" spans="1:1">
-      <c r="A1565" s="2"/>
+      <c r="A1565" s="3"/>
     </row>
     <row r="1566" spans="1:1">
       <c r="A1566" s="2"/>
@@ -10509,7 +10174,7 @@
       <c r="A1567" s="2"/>
     </row>
     <row r="1568" spans="1:1">
-      <c r="A1568" s="2"/>
+      <c r="A1568" s="3"/>
     </row>
     <row r="1569" spans="1:1">
       <c r="A1569" s="2"/>
@@ -10536,7 +10201,7 @@
       <c r="A1576" s="2"/>
     </row>
     <row r="1577" spans="1:1">
-      <c r="A1577" s="2"/>
+      <c r="A1577" s="3"/>
     </row>
     <row r="1578" spans="1:1">
       <c r="A1578" s="2"/>
@@ -10548,10 +10213,10 @@
       <c r="A1580" s="2"/>
     </row>
     <row r="1581" spans="1:1">
-      <c r="A1581" s="2"/>
+      <c r="A1581" s="3"/>
     </row>
     <row r="1582" spans="1:1">
-      <c r="A1582" s="2"/>
+      <c r="A1582" s="3"/>
     </row>
     <row r="1583" spans="1:1">
       <c r="A1583" s="2"/>
@@ -10686,7 +10351,7 @@
       <c r="A1626" s="2"/>
     </row>
     <row r="1627" spans="1:1">
-      <c r="A1627" s="3"/>
+      <c r="A1627" s="2"/>
     </row>
     <row r="1628" spans="1:1">
       <c r="A1628" s="2"/>
@@ -10701,7 +10366,7 @@
       <c r="A1631" s="2"/>
     </row>
     <row r="1632" spans="1:1">
-      <c r="A1632" s="3"/>
+      <c r="A1632" s="2"/>
     </row>
     <row r="1633" spans="1:1">
       <c r="A1633" s="2"/>
@@ -10710,7 +10375,7 @@
       <c r="A1634" s="2"/>
     </row>
     <row r="1635" spans="1:1">
-      <c r="A1635" s="3"/>
+      <c r="A1635" s="2"/>
     </row>
     <row r="1636" spans="1:1">
       <c r="A1636" s="2"/>
@@ -10737,7 +10402,7 @@
       <c r="A1643" s="2"/>
     </row>
     <row r="1644" spans="1:1">
-      <c r="A1644" s="3"/>
+      <c r="A1644" s="2"/>
     </row>
     <row r="1645" spans="1:1">
       <c r="A1645" s="2"/>
@@ -10749,10 +10414,10 @@
       <c r="A1647" s="2"/>
     </row>
     <row r="1648" spans="1:1">
-      <c r="A1648" s="3"/>
+      <c r="A1648" s="2"/>
     </row>
     <row r="1649" spans="1:1">
-      <c r="A1649" s="3"/>
+      <c r="A1649" s="2"/>
     </row>
     <row r="1650" spans="1:1">
       <c r="A1650" s="2"/>
@@ -12051,7 +11716,7 @@
       <c r="A2081" s="2"/>
     </row>
     <row r="2082" spans="1:1">
-      <c r="A2082" s="2"/>
+      <c r="A2082" s="3"/>
     </row>
     <row r="2083" spans="1:1">
       <c r="A2083" s="2"/>
@@ -12063,13 +11728,13 @@
       <c r="A2085" s="2"/>
     </row>
     <row r="2086" spans="1:1">
-      <c r="A2086" s="2"/>
+      <c r="A2086" s="3"/>
     </row>
     <row r="2087" spans="1:1">
       <c r="A2087" s="2"/>
     </row>
     <row r="2088" spans="1:1">
-      <c r="A2088" s="2"/>
+      <c r="A2088" s="3"/>
     </row>
     <row r="2089" spans="1:1">
       <c r="A2089" s="2"/>
@@ -12078,13 +11743,13 @@
       <c r="A2090" s="2"/>
     </row>
     <row r="2091" spans="1:1">
-      <c r="A2091" s="2"/>
+      <c r="A2091" s="3"/>
     </row>
     <row r="2092" spans="1:1">
       <c r="A2092" s="2"/>
     </row>
     <row r="2093" spans="1:1">
-      <c r="A2093" s="2"/>
+      <c r="A2093" s="3"/>
     </row>
     <row r="2094" spans="1:1">
       <c r="A2094" s="2"/>
@@ -12099,7 +11764,7 @@
       <c r="A2097" s="2"/>
     </row>
     <row r="2098" spans="1:1">
-      <c r="A2098" s="2"/>
+      <c r="A2098" s="3"/>
     </row>
     <row r="2099" spans="1:1">
       <c r="A2099" s="2"/>
@@ -12252,7 +11917,7 @@
       <c r="A2148" s="2"/>
     </row>
     <row r="2149" spans="1:1">
-      <c r="A2149" s="3"/>
+      <c r="A2149" s="2"/>
     </row>
     <row r="2150" spans="1:1">
       <c r="A2150" s="2"/>
@@ -12264,13 +11929,13 @@
       <c r="A2152" s="2"/>
     </row>
     <row r="2153" spans="1:1">
-      <c r="A2153" s="3"/>
+      <c r="A2153" s="2"/>
     </row>
     <row r="2154" spans="1:1">
       <c r="A2154" s="2"/>
     </row>
     <row r="2155" spans="1:1">
-      <c r="A2155" s="3"/>
+      <c r="A2155" s="2"/>
     </row>
     <row r="2156" spans="1:1">
       <c r="A2156" s="2"/>
@@ -12279,13 +11944,13 @@
       <c r="A2157" s="2"/>
     </row>
     <row r="2158" spans="1:1">
-      <c r="A2158" s="3"/>
+      <c r="A2158" s="2"/>
     </row>
     <row r="2159" spans="1:1">
       <c r="A2159" s="2"/>
     </row>
     <row r="2160" spans="1:1">
-      <c r="A2160" s="3"/>
+      <c r="A2160" s="2"/>
     </row>
     <row r="2161" spans="1:1">
       <c r="A2161" s="2"/>
@@ -12300,7 +11965,7 @@
       <c r="A2164" s="2"/>
     </row>
     <row r="2165" spans="1:1">
-      <c r="A2165" s="3"/>
+      <c r="A2165" s="2"/>
     </row>
     <row r="2166" spans="1:1">
       <c r="A2166" s="2"/>
@@ -12673,207 +12338,6 @@
     </row>
     <row r="2289" spans="1:1">
       <c r="A2289" s="2"/>
-    </row>
-    <row r="2290" spans="1:1">
-      <c r="A2290" s="2"/>
-    </row>
-    <row r="2291" spans="1:1">
-      <c r="A2291" s="2"/>
-    </row>
-    <row r="2292" spans="1:1">
-      <c r="A2292" s="2"/>
-    </row>
-    <row r="2293" spans="1:1">
-      <c r="A2293" s="2"/>
-    </row>
-    <row r="2294" spans="1:1">
-      <c r="A2294" s="2"/>
-    </row>
-    <row r="2295" spans="1:1">
-      <c r="A2295" s="2"/>
-    </row>
-    <row r="2296" spans="1:1">
-      <c r="A2296" s="2"/>
-    </row>
-    <row r="2297" spans="1:1">
-      <c r="A2297" s="2"/>
-    </row>
-    <row r="2298" spans="1:1">
-      <c r="A2298" s="2"/>
-    </row>
-    <row r="2299" spans="1:1">
-      <c r="A2299" s="2"/>
-    </row>
-    <row r="2300" spans="1:1">
-      <c r="A2300" s="2"/>
-    </row>
-    <row r="2301" spans="1:1">
-      <c r="A2301" s="2"/>
-    </row>
-    <row r="2302" spans="1:1">
-      <c r="A2302" s="2"/>
-    </row>
-    <row r="2303" spans="1:1">
-      <c r="A2303" s="2"/>
-    </row>
-    <row r="2304" spans="1:1">
-      <c r="A2304" s="2"/>
-    </row>
-    <row r="2305" spans="1:1">
-      <c r="A2305" s="2"/>
-    </row>
-    <row r="2306" spans="1:1">
-      <c r="A2306" s="2"/>
-    </row>
-    <row r="2307" spans="1:1">
-      <c r="A2307" s="2"/>
-    </row>
-    <row r="2308" spans="1:1">
-      <c r="A2308" s="2"/>
-    </row>
-    <row r="2309" spans="1:1">
-      <c r="A2309" s="2"/>
-    </row>
-    <row r="2310" spans="1:1">
-      <c r="A2310" s="2"/>
-    </row>
-    <row r="2311" spans="1:1">
-      <c r="A2311" s="2"/>
-    </row>
-    <row r="2312" spans="1:1">
-      <c r="A2312" s="2"/>
-    </row>
-    <row r="2313" spans="1:1">
-      <c r="A2313" s="2"/>
-    </row>
-    <row r="2314" spans="1:1">
-      <c r="A2314" s="2"/>
-    </row>
-    <row r="2315" spans="1:1">
-      <c r="A2315" s="2"/>
-    </row>
-    <row r="2316" spans="1:1">
-      <c r="A2316" s="2"/>
-    </row>
-    <row r="2317" spans="1:1">
-      <c r="A2317" s="2"/>
-    </row>
-    <row r="2318" spans="1:1">
-      <c r="A2318" s="2"/>
-    </row>
-    <row r="2319" spans="1:1">
-      <c r="A2319" s="2"/>
-    </row>
-    <row r="2320" spans="1:1">
-      <c r="A2320" s="2"/>
-    </row>
-    <row r="2321" spans="1:1">
-      <c r="A2321" s="2"/>
-    </row>
-    <row r="2322" spans="1:1">
-      <c r="A2322" s="2"/>
-    </row>
-    <row r="2323" spans="1:1">
-      <c r="A2323" s="2"/>
-    </row>
-    <row r="2324" spans="1:1">
-      <c r="A2324" s="2"/>
-    </row>
-    <row r="2325" spans="1:1">
-      <c r="A2325" s="2"/>
-    </row>
-    <row r="2326" spans="1:1">
-      <c r="A2326" s="2"/>
-    </row>
-    <row r="2327" spans="1:1">
-      <c r="A2327" s="2"/>
-    </row>
-    <row r="2328" spans="1:1">
-      <c r="A2328" s="2"/>
-    </row>
-    <row r="2329" spans="1:1">
-      <c r="A2329" s="2"/>
-    </row>
-    <row r="2330" spans="1:1">
-      <c r="A2330" s="2"/>
-    </row>
-    <row r="2331" spans="1:1">
-      <c r="A2331" s="2"/>
-    </row>
-    <row r="2332" spans="1:1">
-      <c r="A2332" s="2"/>
-    </row>
-    <row r="2333" spans="1:1">
-      <c r="A2333" s="2"/>
-    </row>
-    <row r="2334" spans="1:1">
-      <c r="A2334" s="2"/>
-    </row>
-    <row r="2335" spans="1:1">
-      <c r="A2335" s="2"/>
-    </row>
-    <row r="2336" spans="1:1">
-      <c r="A2336" s="2"/>
-    </row>
-    <row r="2337" spans="1:1">
-      <c r="A2337" s="2"/>
-    </row>
-    <row r="2338" spans="1:1">
-      <c r="A2338" s="2"/>
-    </row>
-    <row r="2339" spans="1:1">
-      <c r="A2339" s="2"/>
-    </row>
-    <row r="2340" spans="1:1">
-      <c r="A2340" s="2"/>
-    </row>
-    <row r="2341" spans="1:1">
-      <c r="A2341" s="2"/>
-    </row>
-    <row r="2342" spans="1:1">
-      <c r="A2342" s="2"/>
-    </row>
-    <row r="2343" spans="1:1">
-      <c r="A2343" s="2"/>
-    </row>
-    <row r="2344" spans="1:1">
-      <c r="A2344" s="2"/>
-    </row>
-    <row r="2345" spans="1:1">
-      <c r="A2345" s="2"/>
-    </row>
-    <row r="2346" spans="1:1">
-      <c r="A2346" s="2"/>
-    </row>
-    <row r="2347" spans="1:1">
-      <c r="A2347" s="2"/>
-    </row>
-    <row r="2348" spans="1:1">
-      <c r="A2348" s="2"/>
-    </row>
-    <row r="2349" spans="1:1">
-      <c r="A2349" s="2"/>
-    </row>
-    <row r="2350" spans="1:1">
-      <c r="A2350" s="2"/>
-    </row>
-    <row r="2351" spans="1:1">
-      <c r="A2351" s="2"/>
-    </row>
-    <row r="2352" spans="1:1">
-      <c r="A2352" s="2"/>
-    </row>
-    <row r="2353" spans="1:1">
-      <c r="A2353" s="2"/>
-    </row>
-    <row r="2354" spans="1:1">
-      <c r="A2354" s="2"/>
-    </row>
-    <row r="2355" spans="1:1">
-      <c r="A2355" s="2"/>
-    </row>
-    <row r="2356" spans="1:1">
-      <c r="A2356" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
